--- a/pred_ohlcv/54_21/2020-01-11 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 BTG ohlcv.xlsx
@@ -2186,7 +2186,7 @@
         <v>-612.7533710099998</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-696.5101710099998</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-677.5767710099998</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-684.5767710099998</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-684.5767710099998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-684.5767710099998</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-422.7695121199998</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-422.7695121199998</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-439.8351121199998</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-499.0292121199998</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-503.0292121199998</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-503.0292121199998</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-603.1435121199997</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-5624.0013221</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-5835.2877221</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-5653.23194797</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-5657.23194797</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-5252.093122099999</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-5307.682422099999</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-5313.760822099999</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-5313.760822099999</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-5321.760822099999</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-5289.760822099999</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-5289.760822099999</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-5319.760822099999</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-5319.760822099999</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-5144.569822099999</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-5114.323422099999</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3596.334092550001</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2897.613892550001</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2975.959492550001</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2975.959492550001</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2975.959492550001</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3650.669492550001</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3649.389492550001</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3973.906477650001</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3973.906477650001</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3973.906477650001</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3980.836477650001</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-2572.855188270001</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1355.977269360002</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1355.977269360002</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1356.375969360002</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1141.087269360002</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1342.813269360002</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1363.305669360002</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1333.073769360002</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1309.242269360002</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1336.492369360002</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1336.732369360002</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1433.461569360002</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-2045.761669360002</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-2680.396069360002</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-2900.755869360002</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-2901.287369360002</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 BTG ohlcv.xlsx
@@ -2186,7 +2186,7 @@
         <v>-612.7533710099998</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-696.5101710099998</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-677.5767710099998</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-684.5767710099998</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-684.5767710099998</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-684.5767710099998</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-422.7695121199998</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-422.7695121199998</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-439.8351121199998</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-499.0292121199998</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-503.0292121199998</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-503.0292121199998</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-603.1435121199997</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-5624.0013221</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-5835.2877221</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-5653.23194797</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-5657.23194797</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-5313.760822099999</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-5321.760822099999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-5289.760822099999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-5289.760822099999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-5319.760822099999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-5319.760822099999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-5114.323422099999</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-5144.9306221</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-3596.334092550001</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2897.613892550001</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2897.492892550001</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2975.959492550001</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2975.959492550001</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2975.959492550001</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-3650.669492550001</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-3649.389492550001</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-3973.906477650001</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-3973.906477650001</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-3973.906477650001</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-3980.836477650001</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-2572.855188270001</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-1355.977269360002</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1355.977269360002</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-1356.375969360002</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-1356.051169360002</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-1141.087269360002</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-1342.813269360002</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-1363.305669360002</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-1333.073769360002</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-1309.242269360002</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-1336.492369360002</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-1336.732369360002</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-1433.461569360002</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-2045.761669360002</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-2680.396069360002</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-2900.755869360002</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
